--- a/KFLA/Data/data.es.xlsx
+++ b/KFLA/Data/data.es.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="38 competency questions_Spanish" sheetId="9" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="542">
   <si>
     <t>Competency Name</t>
   </si>
@@ -569,93 +569,48 @@
     <t>Stoppers.Loading</t>
   </si>
   <si>
-    <t>Loading stoppers...</t>
-  </si>
-  <si>
     <t>PageTitles.LIBRARY</t>
   </si>
   <si>
-    <t>Competency Library</t>
-  </si>
-  <si>
     <t>PageTitles.COMPETENCIES</t>
   </si>
   <si>
-    <t>Competency Assessment</t>
-  </si>
-  <si>
     <t>PageTitles.QUESTIONS</t>
   </si>
   <si>
-    <t>Behavior-Based Questions</t>
-  </si>
-  <si>
     <t>Home.Title</t>
   </si>
   <si>
-    <t>Korn Ferry Leadership Architectâ„¢</t>
-  </si>
-  <si>
     <t>Home.Internal</t>
   </si>
   <si>
-    <t>For internal use only</t>
-  </si>
-  <si>
     <t>QuestionsResult.Questions</t>
   </si>
   <si>
-    <t>QUESTIONS</t>
-  </si>
-  <si>
     <t>QuestionsResult.Notes</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>QuestionsResult.Empty</t>
   </si>
   <si>
-    <t>No competencies or stoppers selected. Redirrecting...</t>
-  </si>
-  <si>
     <t>Buttons.Print</t>
   </si>
   <si>
-    <t>Print</t>
-  </si>
-  <si>
     <t>Buttons.Info</t>
   </si>
   <si>
-    <t>Info</t>
-  </si>
-  <si>
     <t>Buttons.Submit</t>
   </si>
   <si>
-    <t>Submit</t>
-  </si>
-  <si>
     <t>Buttons.Reset</t>
   </si>
   <si>
-    <t>Reset</t>
-  </si>
-  <si>
     <t>Buttons.Close</t>
   </si>
   <si>
-    <t>Close</t>
-  </si>
-  <si>
     <t>Questionaire.Reset</t>
   </si>
   <si>
-    <t>Are you sure you wish to reset questionaire?</t>
-  </si>
-  <si>
     <t>Questionaire.PasswordRequired</t>
   </si>
   <si>
@@ -683,9 +638,6 @@
     <t>Questionaire.Loading</t>
   </si>
   <si>
-    <t>Loading competencies...</t>
-  </si>
-  <si>
     <t>StopperItem.Problem</t>
   </si>
   <si>
@@ -698,15 +650,9 @@
     <t>Library.SortByNumber</t>
   </si>
   <si>
-    <t>Sort by Competency number</t>
-  </si>
-  <si>
     <t>Library.SortByFactors</t>
   </si>
   <si>
-    <t>Sort by Factors and Clusters</t>
-  </si>
-  <si>
     <t>Skills.SKILLED</t>
   </si>
   <si>
@@ -722,34 +668,19 @@
     <t>RightsReserved</t>
   </si>
   <si>
-    <t>Â© Korn Ferry 2014-2015. All rights reserved.</t>
-  </si>
-  <si>
     <t>Evaluation.Reset</t>
   </si>
   <si>
-    <t>Are you sure you wish to reset evaluation?</t>
-  </si>
-  <si>
     <t>Evaluation.Loading</t>
   </si>
   <si>
     <t>CompetencyItem.Cards</t>
   </si>
   <si>
-    <t>Korn Ferry Leadership Architectâ„¢ Global Competency Framework Sort Cards</t>
-  </si>
-  <si>
     <t>EvaluationResult.Legend</t>
   </si>
   <si>
-    <t>Legend</t>
-  </si>
-  <si>
     <t>EvaluationResult.Empty</t>
-  </si>
-  <si>
-    <t>No competencies evaluated. Redirrecting...</t>
   </si>
   <si>
     <t>ID</t>
@@ -2211,6 +2142,93 @@
   </si>
   <si>
     <t xml:space="preserve">TALENTED </t>
+  </si>
+  <si>
+    <t>Cargando topes de carrera…</t>
+  </si>
+  <si>
+    <t>Biblioteca de competencias</t>
+  </si>
+  <si>
+    <t>Evaluación de competencias</t>
+  </si>
+  <si>
+    <t>Preguntas basadas en comportamientos</t>
+  </si>
+  <si>
+    <t>Solo para uso interno</t>
+  </si>
+  <si>
+    <t>PREGUNTAS</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>No hay limitantes o topes de carrera seleccionados. Redireccionando…</t>
+  </si>
+  <si>
+    <t>Imprimir</t>
+  </si>
+  <si>
+    <t>Información</t>
+  </si>
+  <si>
+    <t>Enviar</t>
+  </si>
+  <si>
+    <t>Reiniciar</t>
+  </si>
+  <si>
+    <t>Cerrar</t>
+  </si>
+  <si>
+    <t>¿Estás seguro que quieres reiniciar el cuestionario?</t>
+  </si>
+  <si>
+    <t>Cargando competencias…</t>
+  </si>
+  <si>
+    <t>Ordenar por número de competencia</t>
+  </si>
+  <si>
+    <t>Ordenar por factores y grupos</t>
+  </si>
+  <si>
+    <t>© Korn Ferry 2014-2015. All rights reserved.</t>
+  </si>
+  <si>
+    <t>¿Estás seguro que quieres reiniciar la evaluación?</t>
+  </si>
+  <si>
+    <t>Clasificación</t>
+  </si>
+  <si>
+    <t>No hay competencias evaluados. Redireccionando…</t>
+  </si>
+  <si>
+    <t>Buena descripción</t>
+  </si>
+  <si>
+    <t>Pudiera describir</t>
+  </si>
+  <si>
+    <t>Mala descripcion</t>
+  </si>
+  <si>
+    <t>Esto es cierto la mayoría de las veces</t>
+  </si>
+  <si>
+    <t>Esto es cierto en algunas ocasiones</t>
+  </si>
+  <si>
+    <t>Esto es cierto en muy pocas ocasiones</t>
+  </si>
+  <si>
+    <t>Korn Ferry Leadership Architect © Global Competency Framework Sort Cards</t>
+  </si>
+  <si>
+    <t>Korn Ferry Leadership Architect</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +2373,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2442,6 +2460,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="columnHeader" xfId="1"/>
@@ -2768,7 +2789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2791,22 +2812,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>13</v>
@@ -2829,28 +2850,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>46</v>
@@ -2868,28 +2889,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>49</v>
@@ -2907,28 +2928,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>52</v>
@@ -2946,28 +2967,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>55</v>
@@ -2987,28 +3008,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>57</v>
@@ -3026,28 +3047,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>5</v>
@@ -3065,28 +3086,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>62</v>
@@ -3106,28 +3127,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>342</v>
-      </c>
       <c r="G9" s="17" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>66</v>
@@ -3145,28 +3166,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>69</v>
@@ -3184,28 +3205,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -3223,28 +3244,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>74</v>
@@ -3264,28 +3285,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>78</v>
@@ -3303,28 +3324,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -3344,28 +3365,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>85</v>
@@ -3383,28 +3404,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="J16" s="27" t="s">
         <v>88</v>
@@ -3424,28 +3445,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="J17" s="27" t="s">
         <v>92</v>
@@ -3463,28 +3484,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="J18" s="27" t="s">
         <v>95</v>
@@ -3502,28 +3523,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="J19" s="27" t="s">
         <v>98</v>
@@ -3541,28 +3562,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>101</v>
@@ -3582,28 +3603,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>11</v>
@@ -3621,28 +3642,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>106</v>
@@ -3660,28 +3681,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>109</v>
@@ -3699,28 +3720,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>112</v>
@@ -3738,28 +3759,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>115</v>
@@ -3779,28 +3800,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>119</v>
@@ -3820,28 +3841,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>123</v>
@@ -3859,28 +3880,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>126</v>
@@ -3898,28 +3919,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>129</v>
@@ -3937,28 +3958,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>132</v>
@@ -3976,28 +3997,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>333</v>
-      </c>
       <c r="F31" s="17" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>135</v>
@@ -4015,28 +4036,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>334</v>
-      </c>
       <c r="F32" s="17" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="J32" s="16" t="s">
         <v>138</v>
@@ -4054,28 +4075,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="J33" s="16" t="s">
         <v>141</v>
@@ -4093,28 +4114,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="J34" s="30" t="s">
         <v>144</v>
@@ -4132,28 +4153,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="J35" s="30" t="s">
         <v>146</v>
@@ -4171,28 +4192,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="J36" s="30" t="s">
         <v>149</v>
@@ -4210,28 +4231,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>152</v>
@@ -4249,28 +4270,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>155</v>
@@ -4288,28 +4309,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>158</v>
@@ -4356,13 +4377,13 @@
         <v>14</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>16</v>
@@ -4385,16 +4406,16 @@
         <v>101</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>21</v>
@@ -4414,16 +4435,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>25</v>
@@ -4441,16 +4462,16 @@
         <v>103</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>28</v>
@@ -4466,16 +4487,16 @@
         <v>104</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>30</v>
@@ -4495,16 +4516,16 @@
         <v>105</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>34</v>
@@ -4522,16 +4543,16 @@
         <v>106</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>37</v>
@@ -4545,16 +4566,16 @@
         <v>107</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>38</v>
@@ -4570,16 +4591,16 @@
         <v>108</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>40</v>
@@ -4597,16 +4618,16 @@
         <v>109</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>43</v>
@@ -4620,16 +4641,16 @@
         <v>110</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>44</v>
@@ -4651,8 +4672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4673,336 +4694,336 @@
       <c r="A2" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>520</v>
+      <c r="B2" s="34" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>165</v>
+      <c r="B3" s="34" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>173</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>177</v>
+        <v>170</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>183</v>
+        <v>173</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>185</v>
+        <v>174</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>187</v>
+        <v>175</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>189</v>
+        <v>176</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>191</v>
+        <v>177</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>193</v>
+        <v>178</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>203</v>
+        <v>187</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>525</v>
+        <v>188</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>526</v>
+        <v>189</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>203</v>
+        <v>190</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>208</v>
+        <v>191</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>210</v>
+        <v>192</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>522</v>
+        <v>193</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>521</v>
+        <v>194</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>523</v>
+        <v>195</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>524</v>
+        <v>196</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>216</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>218</v>
+        <v>198</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>221</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>223</v>
+        <v>201</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>225</v>
+        <v>202</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>229</v>
+        <v>496</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>230</v>
+        <v>496</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>231</v>
+        <v>496</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>238</v>
+        <v>496</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>239</v>
+        <v>496</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>240</v>
+        <v>496</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -5032,22 +5053,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5055,19 +5076,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5075,19 +5096,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5095,19 +5116,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/KFLA/Data/data.es.xlsx
+++ b/KFLA/Data/data.es.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lt1tfs2\Clients\Littelfuse\LiteelFuse Competancies\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gediminas.rimkus\Desktop\data from LF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,14 +14,14 @@
   <sheets>
     <sheet name="38 competency questions_Spanish" sheetId="9" r:id="rId1"/>
     <sheet name="Stallers and Stoppers_Spanish" sheetId="10" r:id="rId2"/>
-    <sheet name="Strings" sheetId="4" r:id="rId3"/>
+    <sheet name="Strings" sheetId="15" r:id="rId3"/>
     <sheet name="Evaluations" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'38 competency questions_Spanish'!$B$1:$I$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Stallers and Stoppers_Spanish'!$A$1:$E$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Strings!$A$1:$B$1</definedName>
-    <definedName name="list" localSheetId="2">Strings!$A$2:$B$37</definedName>
+    <definedName name="list" localSheetId="2">Strings!$A$2:$B$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -51,59 +51,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="542">
-  <si>
-    <t>Competency Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="412">
   <si>
     <t>Comp #</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you led a cross-functional team.  How did you build those relationships and what was the result?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you evaluate candidates for open positions?  </t>
-  </si>
-  <si>
-    <t>Explain how you stay on top of the market/industry in order to know where to find top talent.</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you had to deliver negative feedback. What was your approach and how was it received?</t>
-  </si>
-  <si>
-    <t>Explain a time when you had to sell a creative idea to higher management.  What was your approach and how was it received?  Was it implemented?</t>
-  </si>
-  <si>
-    <t>Explain a time when it was difficult to build rapport with a colleague or a team. What did you do and what was the end result?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Give an example of a time when you formulated a strategy and defined the follow up steps to achieve organization strategic goals? </t>
-  </si>
-  <si>
-    <t>OVERUSED SKILL</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Not A Problem</t>
-  </si>
-  <si>
     <t>Question 1</t>
   </si>
   <si>
@@ -191,372 +149,6 @@
     <t>Tell me about a time you struggled to get things done with multiple stakeholders.  Why do you think it happened and how did you adjust your approach the next time?</t>
   </si>
   <si>
-    <t>Explain a time where you created a sense of urgency with your team around a project? How did they respond and was the project completed as expected?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you or your team did not meet specific performance goals.  What was your course of action?  </t>
-  </si>
-  <si>
-    <t>Provide an example of when you followed through on a commitment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example when you were the first person with a solution to an issue or a problem.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of when you didn't give up on finding the right solution for a project. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you quickly and decisively took action in a situation. </t>
-  </si>
-  <si>
-    <t>Explain a time when you didn't have all the information to make a decision or proceed with a project.  How did you handle it?</t>
-  </si>
-  <si>
-    <t>Explain a time when something changed in a project (e.g., budget, stakeholders, customer request)  How did you handle this change and what was the outcome?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you took action without enough data. What was the outcome?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time you partnered successfully with recruitment team to find the best talent for an open position.  </t>
-  </si>
-  <si>
-    <t>Explain a time when you were able to leverage your network to find qualified diverse candidates for open positions.</t>
-  </si>
-  <si>
-    <t>Tell me about a time you used financial or industry data to developed or improve business.</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you identified trends that you used to advance a project or function?</t>
-  </si>
-  <si>
-    <t>Explain a time when you identified a policy, practice or procedure to benefit your business/organization.</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you were part of a group that did not get along or did not see the bigger picture of the project. How did you lead them to a solid working relationship?</t>
-  </si>
-  <si>
-    <t>Describe a time when you facilitated an open dialogue with a wide variety of contributors and stakeholders.</t>
-  </si>
-  <si>
-    <t>Explain how you communicate with different audiences. Provide an example when you had to adjust your communication so they understood what you are saying.</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you led a project and had to report on its progress. What was your approach?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you were working with someone who didn't understand the project. What was your approach?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you had to deliver negative or uncomfortable news to management or your team.  How did you approach this?</t>
-  </si>
-  <si>
-    <t>Explain a time when you analyzed multiple and diverse sources of information to define a problem accurately before moving to a solution.</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you distinguished between what was relevant and what was unimportant in a complex project or task. Explain the situation and the results.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you had to look beyond the obvious and understand deeper levels of the situation.  </t>
-  </si>
-  <si>
-    <t>Give an example of when you managed a conflict well.  How was it resolved?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you anticipated conflict. How did you you address the situation? Did you managed to avoid the conflict in the end?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you disagreed with someone's opinion. What did you do?</t>
-  </si>
-  <si>
-    <t>Tell me about a time you shared unpleasant news with a manager or team (e.g., missed deadline, lost sale) How was the message received and what was the result?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a time you volunteered to take on a difficult assignment. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of when you anticipated a customer need and went above and beyond to meet it. </t>
-  </si>
-  <si>
-    <t>Tell me about a time when you had an unreasonable customer request. How did you handle it?</t>
-  </si>
-  <si>
-    <t>Provide an example on how you researched your customer to ensure positive engagement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain when you have used a customer insight to drive the development of a new product or offering. </t>
-  </si>
-  <si>
-    <t>Tell me about a time you had to make a decision quickly in order to gain a positive result.</t>
-  </si>
-  <si>
-    <t>Provide an example where you had to distinguish between opinions and facts.  How did you approach this and what was the end result?</t>
-  </si>
-  <si>
-    <t>Provide an example of when you made a bad decision. How did you rectify the situation?</t>
-  </si>
-  <si>
-    <t>Explain how you have successfully developed talent in your team or within the organization? What was your approach and what was the result for the associate?</t>
-  </si>
-  <si>
-    <t>Provide an example of a stretch assignment for a member of your team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain how you have used various developmental tools to provide opportunities for your team. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of when you provided feedback in a developmental situation. </t>
-  </si>
-  <si>
-    <t>Explain how you have leveraged different experiences, work styles, backgrounds, and perspectives within your team or within a project?  What  was the result?</t>
-  </si>
-  <si>
-    <t>Provide an example of when you asked for input from your team or organization around a decision. How did the varied input affect the decision?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you were challenged to balance the needs of a diverse group.  Were you able to achieve the results intended? Was the group pleased with the result? </t>
-  </si>
-  <si>
-    <t>Explain a situation where you conveyed clear performance expectations. How did you follow up with your team? Did you achieve the expected results?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you set stretch goals and objectives, pushing an individual or a team to elevate performance. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you successfully delegated a project to a team member.  What was the result and impact?  </t>
-  </si>
-  <si>
-    <t>Explain a time when you were unsuccessful delegating. What was the result and impact?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe a situation where you had to motivate a group of different team members.  What was your approach and how did they respond? </t>
-  </si>
-  <si>
-    <t>Explain a time when you may have stretched an associate beyond their capability.  How did you adjust your motivation for that associate?</t>
-  </si>
-  <si>
-    <t>Describe a time you had to avoid providing constructive feedback and it impacted the engagement of your associate.  How did the situation unfold?</t>
-  </si>
-  <si>
-    <t>Explain a project where you needed to identify and monitor key financial indicators to measure performance, identify trends, and suggest strategies that impacted results.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Explain a time </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>when you had to present financial results to people with limited financially acumen.  What was your approach?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of when you used financial analysis to make your business case.  How did it work? </t>
-  </si>
-  <si>
-    <t>Explain a time when you developed different ideas within your group to deal with global uncertainties.</t>
-  </si>
-  <si>
-    <t>Explain a situation where you considered multiple and varied viewpoints when addressing problems and opportunities. What was the end result?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example where you pushed for an opportunity on a global scale that your organization was not prepared for. What was the result? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you developed a new viable idea to improve your business area.  </t>
-  </si>
-  <si>
-    <t>Describe a time when you created excitement within your team to explore creative options.  What was the end result?</t>
-  </si>
-  <si>
-    <t>How do you stay on top of emerging trends in the industry?  How did you apply them in implementing your team projects?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you were involved with a complex project that needed support from a wide variety of people.  How did you build relationships with the team? </t>
-  </si>
-  <si>
-    <t>Provide an example of when you needed to show compassion or empathy to a team member.  What was the situation and result?</t>
-  </si>
-  <si>
-    <t>Provide an example when you needed to consult within your network (internal or external) to accomplish your goals.</t>
-  </si>
-  <si>
-    <t>Provide an example of a situation when you had to build an internal and external network. How did it help you professionally (i.e., to progress in your career and achieve your goals).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of consulting with a network beyond your immediate functional area. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example when you had to use multiple learning methods to come to the right solution.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you made a mistake. How did you manage to turn that mistake into a learning opportunity? </t>
-  </si>
-  <si>
-    <t>Provide an example of when you used a different approach to solve a problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you had to navigate through a sensitive situation in your organization (e.g., to deal with competing priorities among groups).  What was the process you used and what was the result? </t>
-  </si>
-  <si>
-    <t>Provide an example when you anticipated a change in the market that could impact  your organization.  What was that change and how did you navigate through it?</t>
-  </si>
-  <si>
-    <t>Provide an example where you navigated through cultural differences to achieve the  objectives of a project? Did you achieve the result as anticipated?</t>
-  </si>
-  <si>
-    <t>Provide an example when you convinced management or a different team about your business idea. What was your approach?</t>
-  </si>
-  <si>
-    <t>Provide an example of a situation when you had a plan for a project and your boss or team were not on board.  How did you handle the situation? What was the result?</t>
-  </si>
-  <si>
-    <t>Provide an example of a time when you had to encounter views that were different from your own. How did you negotiate with the members of the project team to come to a successful business outcome?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you had to negotiate with a customer who had expressed the need for a change.</t>
-  </si>
-  <si>
-    <t>Provide an example when you had to change your priorities according to business conditions or a shift in management direction.  What was your approach?</t>
-  </si>
-  <si>
-    <t>Provide an example of a situation when you had to lead a project and define the necessary resources.  Were you successful in securing those resources?  If not, how did you handle the situation?</t>
-  </si>
-  <si>
-    <t>Provide an example of a time when you encountered obstacles with your project or work.  How did you deal with those obstacles and what was the end result?</t>
-  </si>
-  <si>
-    <t>Provide an example of when you managed a project which turned out to be a success. How did you plan the project?  Did you achieve the results on time and within budget?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you had a stressful situation. How did you manage to stay focused? </t>
-  </si>
-  <si>
-    <t>Provide an example of a time when you had to take constructive action to gravitate through a difficult situation.</t>
-  </si>
-  <si>
-    <t>Provide an example of a situation when you needed to recover from a set-back during a project.</t>
-  </si>
-  <si>
-    <t>Provide an example of a time when you had to use different or new resources to reach the desired outcome.</t>
-  </si>
-  <si>
-    <t>Provide an example of a time when you had to make the most out of limited recourses available. How did you allocate them?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Provide an example of a situation when your knowledge of internal structures, processes and/or culture helped you complete a project on time and within budget.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tell me about a time when you were asked to take on a project that was failing. How did you turn it around and deliver positive results?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a time when you had to work on a challenging task/project. How did you manage to overcome these challenges?  </t>
-  </si>
-  <si>
-    <t>Tell me about a time when you achieved results but at a high cost (e.g., over-stretched team, compromised budget, overruns). What were the consequences?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you had to take responsibility for a mistake or short-coming. How did you recover?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you received constructive feedback. How did you use this feedback to improve your performance?  </t>
-  </si>
-  <si>
-    <t>How do you typically overcome a limitation?</t>
-  </si>
-  <si>
-    <t>Tell me about a time you learned something new. What was your process?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you didn't know how to approach a task.  What was your approach?</t>
-  </si>
-  <si>
-    <t>Describe a time when you sought out an assignment that stretched you out of your comfort zone. How did you handle it?</t>
-  </si>
-  <si>
-    <t>Describe a time when you needed to adjust your interpersonal or leadership behavior to adapt to a team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When leading a project, how do you normally assess the strengths and weaknesses of each team member in order to achieve the best results. Provide a real-life example from your past. </t>
-  </si>
-  <si>
-    <t>Tell me about a time when you did not manage to adapt to a new situation quickly enough. How did this impact the dynamics of the team and the end result?</t>
-  </si>
-  <si>
-    <t>Provide an example of a large scale project that you led.  How did you keep the stakeholders informed and up to date on the progress of that project?</t>
-  </si>
-  <si>
-    <t>Provide an example of a project involving multiple stakeholders with a variety of needs and goals. How did you bring them together to ensure that all needs were met?</t>
-  </si>
-  <si>
-    <t>Explain a time when you were able to influence the stakeholders expectations, what were your methods n doing this?</t>
-  </si>
-  <si>
-    <t>Describe a situation when you created a strategy to sustain competitive advantage? How did you do it? What was the result?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you anticipated a future trend and implemented a plan to incorporate it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a situation when you placed team goals ahead of your own. </t>
-  </si>
-  <si>
-    <t>Explain a time when you had to lead a diversified team. What was your approach? What were the biggest challenges and how did you manage to overcome them?</t>
-  </si>
-  <si>
-    <t>Provide an example of a situation when you needed to foster an environment of open dialog within a team? What was your approach?</t>
-  </si>
-  <si>
-    <t>Provide an example of a situation when you had to readily learn and adopt a new technology.</t>
-  </si>
-  <si>
-    <t>Provide an example of a time when you had to evaluate different technologies in terms of their suitability to achieve a business need. What was your approach?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a time when some technology held you back from completing a project on time or within budget. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a situation when someone raised doubts about your intergrity or put it to a test.  Please describe your reaction and elaborate on further development of the situation. </t>
-  </si>
-  <si>
-    <t>Tell me about a time when you were faced with unethical behavior at work. How did you handle the situation?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you had to gain trust and confidence with others.</t>
-  </si>
-  <si>
-    <t>Tell me about a time when your team experienced low morale. What was your approach?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a situation when you had to communicate a vision with a sense of purpose about the future to motivate others. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you had to explain a complex strategy to associates. How did you communicate and how was the message received? </t>
-  </si>
-  <si>
-    <t>Provide an example of a time when you had to select a process that would best suit a situation. What was your rationale behind the decision?</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you had to break down a complex process to save time and be more effective.</t>
-  </si>
-  <si>
-    <t>Tell me about a time when you identified the need to improve a process. What was your approach?</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -692,15 +284,6 @@
     <t>Icon</t>
   </si>
   <si>
-    <t>Would describe</t>
-  </si>
-  <si>
-    <t>Might describe</t>
-  </si>
-  <si>
-    <t>Would Not describe</t>
-  </si>
-  <si>
     <t>#007e3a</t>
   </si>
   <si>
@@ -717,15 +300,6 @@
   </si>
   <si>
     <t>minus-circle</t>
-  </si>
-  <si>
-    <t>This would be true all or the majority of the time</t>
-  </si>
-  <si>
-    <t>This would be true some of the time or may be a mixture of would and would not describe</t>
-  </si>
-  <si>
-    <t>This would be seldom or never true</t>
   </si>
   <si>
     <t>Limit</t>
@@ -2117,13 +1691,106 @@
     <t>No es un problema</t>
   </si>
   <si>
+    <t>Cargando topes de carrera…</t>
+  </si>
+  <si>
+    <t>Biblioteca de competencias</t>
+  </si>
+  <si>
+    <t>Evaluación de competencias</t>
+  </si>
+  <si>
+    <t>Preguntas basadas en comportamientos</t>
+  </si>
+  <si>
+    <t>Solo para uso interno</t>
+  </si>
+  <si>
+    <t>PREGUNTAS</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>No hay limitantes o topes de carrera seleccionados. Redireccionando…</t>
+  </si>
+  <si>
+    <t>Imprimir</t>
+  </si>
+  <si>
+    <t>Información</t>
+  </si>
+  <si>
+    <t>Enviar</t>
+  </si>
+  <si>
+    <t>Reiniciar</t>
+  </si>
+  <si>
+    <t>Cerrar</t>
+  </si>
+  <si>
+    <t>¿Estás seguro que quieres reiniciar el cuestionario?</t>
+  </si>
+  <si>
+    <t>Cargando competencias…</t>
+  </si>
+  <si>
+    <t>Ordenar por número de competencia</t>
+  </si>
+  <si>
+    <t>Ordenar por factores y grupos</t>
+  </si>
+  <si>
+    <t>¿Estás seguro que quieres reiniciar la evaluación?</t>
+  </si>
+  <si>
+    <t>Clasificación</t>
+  </si>
+  <si>
+    <t>No hay competencias evaluados. Redireccionando…</t>
+  </si>
+  <si>
+    <t>Buena descripción</t>
+  </si>
+  <si>
+    <t>Pudiera describir</t>
+  </si>
+  <si>
+    <t>Mala descripcion</t>
+  </si>
+  <si>
+    <t>Esto es cierto la mayoría de las veces</t>
+  </si>
+  <si>
+    <t>Esto es cierto en algunas ocasiones</t>
+  </si>
+  <si>
+    <t>Esto es cierto en muy pocas ocasiones</t>
+  </si>
+  <si>
+    <t>Korn Ferry Leadership Architect</t>
+  </si>
+  <si>
+    <t>© Korn Ferry 2014-2015. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Korn Ferry Leadership Architect Global Competency Framework Sort Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type </t>
+  </si>
+  <si>
     <t xml:space="preserve">A Problem </t>
   </si>
   <si>
-    <t xml:space="preserve">Type </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name </t>
+    <t xml:space="preserve">Not A Problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competency Name </t>
   </si>
   <si>
     <t xml:space="preserve">Competency Definition </t>
@@ -2144,98 +1811,20 @@
     <t xml:space="preserve">TALENTED </t>
   </si>
   <si>
-    <t>Cargando topes de carrera…</t>
-  </si>
-  <si>
-    <t>Biblioteca de competencias</t>
-  </si>
-  <si>
-    <t>Evaluación de competencias</t>
-  </si>
-  <si>
-    <t>Preguntas basadas en comportamientos</t>
-  </si>
-  <si>
-    <t>Solo para uso interno</t>
-  </si>
-  <si>
-    <t>PREGUNTAS</t>
-  </si>
-  <si>
-    <t>Notas</t>
-  </si>
-  <si>
-    <t>No hay limitantes o topes de carrera seleccionados. Redireccionando…</t>
-  </si>
-  <si>
-    <t>Imprimir</t>
-  </si>
-  <si>
-    <t>Información</t>
-  </si>
-  <si>
-    <t>Enviar</t>
-  </si>
-  <si>
-    <t>Reiniciar</t>
-  </si>
-  <si>
-    <t>Cerrar</t>
-  </si>
-  <si>
-    <t>¿Estás seguro que quieres reiniciar el cuestionario?</t>
-  </si>
-  <si>
-    <t>Cargando competencias…</t>
-  </si>
-  <si>
-    <t>Ordenar por número de competencia</t>
-  </si>
-  <si>
-    <t>Ordenar por factores y grupos</t>
-  </si>
-  <si>
-    <t>© Korn Ferry 2014-2015. All rights reserved.</t>
-  </si>
-  <si>
-    <t>¿Estás seguro que quieres reiniciar la evaluación?</t>
-  </si>
-  <si>
-    <t>Clasificación</t>
-  </si>
-  <si>
-    <t>No hay competencias evaluados. Redireccionando…</t>
-  </si>
-  <si>
-    <t>Buena descripción</t>
-  </si>
-  <si>
-    <t>Pudiera describir</t>
-  </si>
-  <si>
-    <t>Mala descripcion</t>
-  </si>
-  <si>
-    <t>Esto es cierto la mayoría de las veces</t>
-  </si>
-  <si>
-    <t>Esto es cierto en algunas ocasiones</t>
-  </si>
-  <si>
-    <t>Esto es cierto en muy pocas ocasiones</t>
-  </si>
-  <si>
-    <t>Korn Ferry Leadership Architect © Global Competency Framework Sort Cards</t>
-  </si>
-  <si>
-    <t>Korn Ferry Leadership Architect</t>
+    <t xml:space="preserve">OVERUSED SKILL </t>
+  </si>
+  <si>
+    <t>PageTitles.HOME</t>
+  </si>
+  <si>
+    <t>Home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2318,13 +1907,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2373,7 +1955,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2453,14 +2035,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2790,7 +2364,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,82 +2380,68 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>508</v>
+        <v>404</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>509</v>
+        <v>405</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>510</v>
+        <v>406</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>511</v>
+        <v>407</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>512</v>
+        <v>408</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>8</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>297</v>
+        <v>162</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>305</v>
+        <v>170</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>350</v>
+        <v>215</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -2889,77 +2449,65 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>297</v>
+        <v>162</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>313</v>
+        <v>178</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>351</v>
+        <v>216</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>389</v>
+        <v>254</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>51</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>314</v>
+        <v>179</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>352</v>
+        <v>217</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>390</v>
+        <v>255</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -2967,79 +2515,65 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>223</v>
+        <v>88</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>315</v>
+        <v>180</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>353</v>
+        <v>218</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>391</v>
+        <v>256</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>262</v>
+        <v>127</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>316</v>
+        <v>181</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>354</v>
+        <v>219</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>392</v>
+        <v>257</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
@@ -3047,38 +2581,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>263</v>
+        <v>128</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>317</v>
+        <v>182</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>355</v>
+        <v>220</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>393</v>
+        <v>258</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="105" x14ac:dyDescent="0.25">
@@ -3086,79 +2614,65 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>318</v>
+        <v>183</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>356</v>
+        <v>221</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>394</v>
+        <v>259</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>301</v>
+        <v>166</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>319</v>
+        <v>184</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>357</v>
+        <v>222</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>395</v>
+        <v>260</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>68</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
@@ -3166,77 +2680,65 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>320</v>
+        <v>185</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>358</v>
+        <v>223</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>309</v>
+        <v>174</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>321</v>
+        <v>186</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>359</v>
+        <v>224</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>397</v>
+        <v>262</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -3244,79 +2746,65 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>268</v>
+        <v>133</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>322</v>
+        <v>187</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>360</v>
+        <v>225</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>398</v>
+        <v>263</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>77</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>269</v>
+        <v>134</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>301</v>
+        <v>166</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>323</v>
+        <v>188</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>361</v>
+        <v>226</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>399</v>
+        <v>264</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>80</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -3324,79 +2812,65 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>232</v>
+        <v>97</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>324</v>
+        <v>189</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>362</v>
+        <v>227</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>400</v>
+        <v>265</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>84</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>325</v>
+        <v>190</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>363</v>
+        <v>228</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>401</v>
+        <v>266</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>87</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="105" x14ac:dyDescent="0.25">
@@ -3404,118 +2878,98 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>272</v>
+        <v>137</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>297</v>
+        <v>162</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>326</v>
+        <v>191</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>364</v>
+        <v>229</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>402</v>
+        <v>267</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>91</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>273</v>
+        <v>138</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>365</v>
+        <v>230</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>403</v>
+        <v>268</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>94</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="J17" s="27"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>236</v>
+        <v>101</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>328</v>
+        <v>193</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>366</v>
+        <v>231</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>404</v>
+        <v>269</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>97</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="J18" s="27"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -3523,38 +2977,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>237</v>
+        <v>102</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>329</v>
+        <v>194</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>367</v>
+        <v>232</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>405</v>
+        <v>270</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>100</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
@@ -3562,118 +3010,98 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>330</v>
+        <v>195</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>368</v>
+        <v>233</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>406</v>
+        <v>271</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>103</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>331</v>
+        <v>196</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>369</v>
+        <v>234</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>407</v>
+        <v>272</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>105</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>278</v>
+        <v>143</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>332</v>
+        <v>197</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>370</v>
+        <v>235</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>408</v>
+        <v>273</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>108</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -3681,237 +3109,197 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>279</v>
+        <v>144</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>333</v>
+        <v>198</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>371</v>
+        <v>236</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>409</v>
+        <v>274</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>111</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>280</v>
+        <v>145</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>334</v>
+        <v>199</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>372</v>
+        <v>237</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>410</v>
+        <v>275</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>114</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>335</v>
+        <v>200</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>373</v>
+        <v>238</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>411</v>
+        <v>276</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>244</v>
+        <v>109</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>282</v>
+        <v>147</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>297</v>
+        <v>162</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>374</v>
+        <v>239</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>412</v>
+        <v>277</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>122</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>245</v>
+        <v>110</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>283</v>
+        <v>148</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>337</v>
+        <v>202</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>375</v>
+        <v>240</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>413</v>
+        <v>278</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>125</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>246</v>
+        <v>111</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>284</v>
+        <v>149</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>297</v>
+        <v>162</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>338</v>
+        <v>203</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>376</v>
+        <v>241</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>414</v>
+        <v>279</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>128</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
@@ -3919,38 +3307,32 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>247</v>
+        <v>112</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>297</v>
+        <v>162</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>305</v>
+        <v>170</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>339</v>
+        <v>204</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>377</v>
+        <v>242</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>415</v>
+        <v>280</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="L29" s="29" t="s">
-        <v>131</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="29"/>
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -3958,38 +3340,32 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>248</v>
+        <v>113</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>310</v>
+        <v>175</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>340</v>
+        <v>205</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>378</v>
+        <v>243</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>416</v>
+        <v>281</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>134</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="7"/>
       <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -3997,116 +3373,98 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>287</v>
+        <v>152</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>310</v>
+        <v>175</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>341</v>
+        <v>206</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>379</v>
+        <v>244</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>417</v>
+        <v>282</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>288</v>
+        <v>153</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>342</v>
+        <v>207</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>380</v>
+        <v>245</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>418</v>
+        <v>283</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>140</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="7"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>257</v>
+        <v>122</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>295</v>
+        <v>160</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>301</v>
+        <v>166</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>343</v>
+        <v>208</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>381</v>
+        <v>246</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>419</v>
+        <v>284</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>143</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="7"/>
       <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -4114,38 +3472,32 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>251</v>
+        <v>116</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>289</v>
+        <v>154</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>344</v>
+        <v>209</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>382</v>
+        <v>247</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>420</v>
+        <v>285</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="K34" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="30" t="s">
-        <v>145</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
       <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -4153,116 +3505,98 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>252</v>
+        <v>117</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>383</v>
+        <v>248</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>421</v>
+        <v>286</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="K35" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="L35" s="30" t="s">
-        <v>148</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>253</v>
+        <v>118</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>346</v>
+        <v>211</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>384</v>
+        <v>249</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>422</v>
+        <v>287</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="K36" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>151</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="7"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>254</v>
+        <v>119</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>292</v>
+        <v>157</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>309</v>
+        <v>174</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>347</v>
+        <v>212</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>385</v>
+        <v>250</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>423</v>
+        <v>288</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>154</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
       <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -4270,38 +3604,32 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>255</v>
+        <v>120</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>293</v>
+        <v>158</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>348</v>
+        <v>213</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>386</v>
+        <v>251</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>424</v>
+        <v>289</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>157</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
       <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:13" ht="120" x14ac:dyDescent="0.25">
@@ -4309,42 +3637,35 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>256</v>
+        <v>121</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>294</v>
+        <v>159</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>297</v>
+        <v>162</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>349</v>
+        <v>214</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>387</v>
+        <v>252</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>425</v>
+        <v>290</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>160</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
       <c r="M39" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I39"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4355,7 +3676,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4374,31 +3695,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>506</v>
+        <v>398</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>505</v>
+        <v>399</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>504</v>
+        <v>400</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>16</v>
+        <v>401</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -4406,28 +3727,28 @@
         <v>101</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>464</v>
+        <v>329</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>476</v>
+        <v>341</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>477</v>
+        <v>342</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>486</v>
+        <v>351</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4435,25 +3756,25 @@
         <v>102</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>465</v>
+        <v>330</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>476</v>
+        <v>341</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>478</v>
+        <v>343</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>487</v>
+        <v>352</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I3" s="17"/>
     </row>
@@ -4462,22 +3783,22 @@
         <v>103</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>466</v>
+        <v>331</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>476</v>
+        <v>341</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>479</v>
+        <v>344</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>488</v>
+        <v>353</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -4487,28 +3808,28 @@
         <v>104</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>467</v>
+        <v>332</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>474</v>
+        <v>339</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>480</v>
+        <v>345</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>489</v>
+        <v>354</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4516,25 +3837,25 @@
         <v>105</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>468</v>
+        <v>333</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>474</v>
+        <v>339</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>481</v>
+        <v>346</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>490</v>
+        <v>355</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I6" s="17"/>
     </row>
@@ -4543,73 +3864,73 @@
         <v>106</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>469</v>
+        <v>334</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>474</v>
+        <v>339</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>482</v>
+        <v>347</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>491</v>
+        <v>356</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>107</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>470</v>
+        <v>335</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>475</v>
+        <v>340</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>483</v>
+        <v>348</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>492</v>
+        <v>357</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>108</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>471</v>
+        <v>336</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>475</v>
+        <v>340</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>484</v>
+        <v>349</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>493</v>
+        <v>358</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I9" s="17"/>
     </row>
@@ -4618,19 +3939,19 @@
         <v>109</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>472</v>
+        <v>337</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>475</v>
+        <v>340</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>484</v>
+        <v>349</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>494</v>
+        <v>359</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -4641,28 +3962,27 @@
         <v>110</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>473</v>
+        <v>338</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>475</v>
+        <v>340</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>485</v>
+        <v>350</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>495</v>
+        <v>360</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -4670,364 +3990,380 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>497</v>
+      <c r="A1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>513</v>
+      <c r="A3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>514</v>
+      <c r="A4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>515</v>
+      <c r="A5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>516</v>
+      <c r="A6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>541</v>
+      <c r="A7" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>517</v>
+      <c r="A8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>518</v>
+      <c r="A9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>519</v>
+      <c r="A10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>520</v>
+      <c r="A11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>521</v>
+      <c r="A12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>522</v>
+      <c r="A13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>523</v>
+      <c r="A14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>524</v>
+      <c r="A15" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>525</v>
+      <c r="A16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>535</v>
+      <c r="A17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>536</v>
+      <c r="A40" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>537</v>
+      <c r="A41" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>538</v>
+      <c r="A42" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>539</v>
+      <c r="A43" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -5038,7 +4374,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5053,82 +4389,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>219</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>206</v>
+      <c r="B2" s="21" t="s">
+        <v>389</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F2" t="s">
-        <v>215</v>
+        <v>80</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>207</v>
+      <c r="B3" s="21" t="s">
+        <v>390</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" t="s">
-        <v>216</v>
+        <v>81</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>208</v>
+      <c r="B4" s="21" t="s">
+        <v>391</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" t="s">
-        <v>217</v>
+        <v>82</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
